--- a/后端/res_file/spide_data/游戏/2025032712/游戏_刺客信条/BV1FdQ9YdEcN_刺客信条影4K 最高难度 全任务 全收集 全剧情流程通关攻略 开放世界动作冒险游戏  Assassinx27s Creed Shadows_2025032712.xlsx
+++ b/后端/res_file/spide_data/游戏/2025032712/游戏_刺客信条/BV1FdQ9YdEcN_刺客信条影4K 最高难度 全任务 全收集 全剧情流程通关攻略 开放世界动作冒险游戏  Assassinx27s Creed Shadows_2025032712.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="197">
   <si>
     <t>bvid</t>
   </si>
@@ -46,735 +46,581 @@
     <t>time</t>
   </si>
   <si>
+    <t>emotion</t>
+  </si>
+  <si>
     <t>BV1FdQ9YdEcN</t>
   </si>
   <si>
-    <t>665444888</t>
-  </si>
-  <si>
     <t>JIMAAV</t>
   </si>
   <si>
+    <t>每日评评</t>
+  </si>
+  <si>
+    <t>88224681237_bili</t>
+  </si>
+  <si>
+    <t>如梦境一般</t>
+  </si>
+  <si>
+    <t>屾鬼_</t>
+  </si>
+  <si>
+    <t>瀚汉蟹黄堡</t>
+  </si>
+  <si>
+    <t>正直的冷酷</t>
+  </si>
+  <si>
+    <t>铜仁渣渣辉</t>
+  </si>
+  <si>
+    <t>jo级生物宇良宇影</t>
+  </si>
+  <si>
+    <t>嘤嘤怪的乌鸦</t>
+  </si>
+  <si>
+    <t>东方诚天</t>
+  </si>
+  <si>
+    <t>只会基本操作</t>
+  </si>
+  <si>
+    <t>一号游戏</t>
+  </si>
+  <si>
+    <t>洛瑾夏世</t>
+  </si>
+  <si>
+    <t>肥狗娣</t>
+  </si>
+  <si>
+    <t>丶KK丶_</t>
+  </si>
+  <si>
+    <t>lex的大爹</t>
+  </si>
+  <si>
+    <t>404NotFound_61</t>
+  </si>
+  <si>
+    <t>北方暴风雪</t>
+  </si>
+  <si>
+    <t>或许是熹爷</t>
+  </si>
+  <si>
+    <t>满月之夜的恶作剧魔法</t>
+  </si>
+  <si>
+    <t>bili_52821542601</t>
+  </si>
+  <si>
+    <t>出门前拉过屎的人</t>
+  </si>
+  <si>
+    <t>白凝冰咯</t>
+  </si>
+  <si>
+    <t>NICRA1N</t>
+  </si>
+  <si>
+    <t>亞瑟的赌徒帽</t>
+  </si>
+  <si>
+    <t>SetsuAkira</t>
+  </si>
+  <si>
+    <t>海上力量导弹时代</t>
+  </si>
+  <si>
+    <t>byq678</t>
+  </si>
+  <si>
+    <t>保明爱吃泽阳肉</t>
+  </si>
+  <si>
+    <t>四大皆空切尔西</t>
+  </si>
+  <si>
+    <t>飞哥112255</t>
+  </si>
+  <si>
+    <t>萌狼灬</t>
+  </si>
+  <si>
+    <t>基尔伯特少佐丶</t>
+  </si>
+  <si>
+    <t>饮长空</t>
+  </si>
+  <si>
+    <t>奶奶个秀</t>
+  </si>
+  <si>
+    <t>小杰杰丶灬</t>
+  </si>
+  <si>
+    <t>一只小跳蛙233</t>
+  </si>
+  <si>
+    <t>桶子里的狼</t>
+  </si>
+  <si>
+    <t>小熊猫开课</t>
+  </si>
+  <si>
+    <t>心中向往自由</t>
+  </si>
+  <si>
+    <t>山河如畫何如汝</t>
+  </si>
+  <si>
+    <t>Yunfeio</t>
+  </si>
+  <si>
+    <t>耳机看键盘</t>
+  </si>
+  <si>
+    <t>绚烂丰川祥</t>
+  </si>
+  <si>
+    <t>精神副将马国成</t>
+  </si>
+  <si>
+    <t>格易先生</t>
+  </si>
+  <si>
+    <t>克尔-Thuzad</t>
+  </si>
+  <si>
+    <t>Adam_Ruzek</t>
+  </si>
+  <si>
+    <t>电子青鸟</t>
+  </si>
+  <si>
+    <t>浪人阿蹲</t>
+  </si>
+  <si>
+    <t>顿牛腩你呢</t>
+  </si>
+  <si>
+    <t>是菲不是韭啊</t>
+  </si>
+  <si>
+    <t>木伴石兮</t>
+  </si>
+  <si>
+    <t>爱璐璐阿阿阿阿阿</t>
+  </si>
+  <si>
+    <t>加农酱</t>
+  </si>
+  <si>
+    <t>塵霜辰悦</t>
+  </si>
+  <si>
+    <t>忘川_扶桑</t>
+  </si>
+  <si>
     <t>保密</t>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>未知</t>
   </si>
   <si>
     <t>真卷啊</t>
   </si>
   <si>
+    <t>怎么这个灰蒙蒙的是不是录像没有录制HDR模式。我这里用PS5pro配好电视  小江的蓝色衣服很鲜艳很靓丽的 对比度的很强烈的 奇怪了怎么电脑这里录像感觉都灰蒙蒙任务也是朦朦胧胧不够锐利</t>
+  </si>
+  <si>
+    <t>这敌人的刀一会蓝色一会红色的</t>
+  </si>
+  <si>
+    <t>这么快[支持]</t>
+  </si>
+  <si>
+    <t>不打算买，云通了</t>
+  </si>
+  <si>
+    <t>请问一下，这个是什么组织的？</t>
+  </si>
+  <si>
+    <t>不愧是育碧啊, 这都 37h 了还没更新完....</t>
+  </si>
+  <si>
+    <t>刺客信条唯一的败笔就是换个黑G当主角</t>
+  </si>
+  <si>
+    <t>胜姬和奈绪江后续任务怎么触发啊 就做到胜姬加入那就没了[笑哭][笑哭][笑哭]</t>
+  </si>
+  <si>
+    <t>怎么看起来不好玩</t>
+  </si>
+  <si>
+    <t>好看</t>
+  </si>
+  <si>
+    <t>这部还有现代剧情吗？跟之前的没联系？</t>
+  </si>
+  <si>
+    <t>我刚玩想问问啥时候才能自由探索</t>
+  </si>
+  <si>
+    <t>这跟对马岛没太大区别啊，这种罐头式游戏真的很容易玩腻</t>
+  </si>
+  <si>
+    <t>达到</t>
+  </si>
+  <si>
+    <t>排序我感觉乱乱的</t>
+  </si>
+  <si>
+    <t>有点后悔没预购了，看起来还不错[藏狐]</t>
+  </si>
+  <si>
+    <t>没有地图传送机制吗？全靠骑马跑图？</t>
+  </si>
+  <si>
+    <t>影为了表现日本自然风光多么美好，把屏幕里填满了树林，民生相关的村庄、水车能删则删，城堡附近连个城下町都没有，野外的寺庙、神社这些人文景点倒是没忘了添加，路上自动刷新四处游荡、无所事事的平民，仅有的几个城市里也种满了树，各种小桥流水，日本战国整的跟精灵族的瑞文戴尔似的。</t>
+  </si>
+  <si>
+    <t>怎么我那把蓝色小刀的词条是弱点攻击后丢下烟雾弹，咋一点反应都没有呢？</t>
+  </si>
+  <si>
+    <t>感觉这作不太行，刺客信条以历史知名，上一代刺客信条英灵殿起码还能看看中世纪遗迹，这代大阪城没修好，就几个破屋子没啥意思。</t>
+  </si>
+  <si>
+    <t>这武器感觉不行啊</t>
+  </si>
+  <si>
+    <t>最终幻想～回村的诱惑</t>
+  </si>
+  <si>
+    <t>全收集刺客信条，确实吊</t>
+  </si>
+  <si>
+    <t>为什么我没有新手操作教程</t>
+  </si>
+  <si>
+    <t>意犹未尽</t>
+  </si>
+  <si>
+    <t>这次简体中文翻译真不行，好多人名都对不上</t>
+  </si>
+  <si>
+    <t>一人传一人的茶道一点不卫生  成了喝囗水了 何来平衡</t>
+  </si>
+  <si>
+    <t>笑死我女枪手具然认不岀静香了</t>
+  </si>
+  <si>
+    <t>日本人真是够了，自己《仁王》 里头弥助别说踏马是武士，人家还有守护灵熊呢[笑哭]，育碧整个正常人武士就不行了，真是前后把自己给矛盾住了</t>
+  </si>
+  <si>
+    <t>没有受到明智蛊惑，或者拒绝明智，会有什么不一样的剧情吗</t>
+  </si>
+  <si>
+    <t>唯有起源全收集！</t>
+  </si>
+  <si>
+    <t>这个游戏可以游遍日本岛吗</t>
+  </si>
+  <si>
+    <t>任务目标里面最下面那个未知组织是啥啊</t>
+  </si>
+  <si>
+    <t>为什么这个游戏的画面填充很奇怪，看着好不适配啊，各种大黑边</t>
+  </si>
+  <si>
+    <t>别做一个叫“战马”的支线，不然几个小时后会知道什么叫做所有的努力全部木大[疑惑]</t>
+  </si>
+  <si>
+    <t>一天怎么才更新三集[生气][生气][生气][生气]</t>
+  </si>
+  <si>
+    <t>脸模这么特别,有点让人出戏,会想为什么要把脸建这么丑,ZZZQ等等,总之每个厂做的游戏气质真的不一样,就像人一样,出生环境决定..</t>
+  </si>
+  <si>
+    <t>为什么我通关了技能书还有技能要我继续推进剧情[蔚蓝档案静态_生气]</t>
+  </si>
+  <si>
+    <t>武道赛怎么触发啊请问？</t>
+  </si>
+  <si>
+    <t>我不明白，为什么大佬黑看到三太夫的袖箭就变了？是后面还有瓜吃吗？</t>
+  </si>
+  <si>
+    <t>我想问问自从双角色开始后，我物品栏一直有感叹号，怎么消啊，我连任务物品都全点了，还是消不了感叹号，折磨死了</t>
+  </si>
+  <si>
+    <t>这武形套路真的sb，shift➕左键一直判断错的</t>
+  </si>
+  <si>
+    <t>怎么一股对马岛哪味</t>
+  </si>
+  <si>
+    <t>这一作打斗不华丽了，劈砍挑刺也没什么特效，石头山水也一般，可能历史还原度很高，但光看就没什么兴趣玩了[藏狐]</t>
+  </si>
+  <si>
+    <t>黑哥换成桐生一马就想玩了[颂乐人偶_眯眼笑]</t>
+  </si>
+  <si>
+    <t>玩一半了，来看弹幕回味下</t>
+  </si>
+  <si>
+    <t>本能寺之变这一段太棒了，熬夜玩完了还要来找视频再看几遍</t>
+  </si>
+  <si>
+    <t>请问一下，伊贺的感叹号任务在哪一p啊</t>
+  </si>
+  <si>
+    <t>露脸+引怪+烟雾弹+刺杀 或只有后两步</t>
+  </si>
+  <si>
+    <t>那个铁炮决斗的出生到底该怎么打啊？他有一万种方式秒我，而我连找着他都费劲</t>
+  </si>
+  <si>
+    <t>还好没听某些逆天指指点点说不好玩，一上手就被惊艳了</t>
+  </si>
+  <si>
+    <t>真感觉不如大革命和起源</t>
+  </si>
+  <si>
+    <t>贵公司有多款手游安卓端和iOS都有   喜欢玩仙侠传奇类的手游可以私信我</t>
+  </si>
+  <si>
+    <t>说的其实没错，真正想要和平就是需要一个统一强大的政权，小势力太多才会动荡不安战争不会结束</t>
+  </si>
+  <si>
+    <t>听起来好别扭啊，是配音差还是台词差。</t>
+  </si>
+  <si>
+    <t>不加入暗杀专属画面，暗杀效果做的也太烂太明显了</t>
+  </si>
+  <si>
+    <t>靠这黑人，是从画里出来的吗？迪奥的事件</t>
+  </si>
+  <si>
+    <t>一直在等这个游戏的攻略视频，终于出了，现在有些游戏只想☁️了实际玩感觉也没那么大兴趣了</t>
+  </si>
+  <si>
+    <t>俯瞰点无法触发是什么原因啊[笑哭]</t>
+  </si>
+  <si>
     <t>2025-03-27 09:25:15</t>
   </si>
   <si>
-    <t>473706003</t>
-  </si>
-  <si>
-    <t>每日评评</t>
-  </si>
-  <si>
-    <t>怎么这个灰蒙蒙的是不是录像没有录制HDR模式。我这里用PS5pro配好电视  小江的蓝色衣服很鲜艳很靓丽的 对比度的很强烈的 奇怪了怎么电脑这里录像感觉都灰蒙蒙任务也是朦朦胧胧不够锐利</t>
-  </si>
-  <si>
     <t>2025-03-27 02:44:07</t>
   </si>
   <si>
-    <t>385342724</t>
-  </si>
-  <si>
-    <t>88224681237_bili</t>
-  </si>
-  <si>
-    <t>这敌人的刀一会蓝色一会红色的</t>
-  </si>
-  <si>
     <t>2025-03-27 02:35:42</t>
   </si>
   <si>
-    <t>235060850</t>
-  </si>
-  <si>
-    <t>如梦境一般</t>
-  </si>
-  <si>
-    <t>这么快[支持]</t>
-  </si>
-  <si>
     <t>2025-03-27 01:18:54</t>
   </si>
   <si>
-    <t>26302566</t>
-  </si>
-  <si>
-    <t>屾鬼_</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>不打算买，云通了</t>
-  </si>
-  <si>
     <t>2025-03-27 00:24:24</t>
   </si>
   <si>
-    <t>694762644</t>
-  </si>
-  <si>
-    <t>瀚汉蟹黄堡</t>
-  </si>
-  <si>
-    <t>请问一下，这个是什么组织的？</t>
-  </si>
-  <si>
     <t>2025-03-26 23:29:07</t>
   </si>
   <si>
-    <t>11802847</t>
-  </si>
-  <si>
-    <t>正直的冷酷</t>
-  </si>
-  <si>
-    <t>不愧是育碧啊, 这都 37h 了还没更新完....</t>
-  </si>
-  <si>
     <t>2025-03-26 22:27:14</t>
   </si>
   <si>
-    <t>1735594476</t>
-  </si>
-  <si>
-    <t>铜仁渣渣辉</t>
-  </si>
-  <si>
-    <t>刺客信条唯一的败笔就是换个黑G当主角</t>
-  </si>
-  <si>
     <t>2025-03-26 21:35:17</t>
   </si>
   <si>
-    <t>33135901</t>
-  </si>
-  <si>
-    <t>jo级生物宇良宇影</t>
-  </si>
-  <si>
-    <t>胜姬和奈绪江后续任务怎么触发啊 就做到胜姬加入那就没了[笑哭][笑哭][笑哭]</t>
-  </si>
-  <si>
     <t>2025-03-26 21:06:26</t>
   </si>
   <si>
-    <t>318780957</t>
-  </si>
-  <si>
-    <t>嘤嘤怪的乌鸦</t>
-  </si>
-  <si>
-    <t>怎么看起来不好玩</t>
-  </si>
-  <si>
     <t>2025-03-26 20:20:06</t>
   </si>
   <si>
-    <t>2041793471</t>
-  </si>
-  <si>
-    <t>东方诚天</t>
-  </si>
-  <si>
-    <t>好看</t>
-  </si>
-  <si>
     <t>2025-03-26 19:08:45</t>
   </si>
   <si>
-    <t>1147353058</t>
-  </si>
-  <si>
-    <t>只会基本操作</t>
-  </si>
-  <si>
-    <t>这部还有现代剧情吗？跟之前的没联系？</t>
-  </si>
-  <si>
     <t>2025-03-26 18:58:42</t>
   </si>
   <si>
-    <t>261787354</t>
-  </si>
-  <si>
-    <t>一号游戏</t>
-  </si>
-  <si>
-    <t>我刚玩想问问啥时候才能自由探索</t>
-  </si>
-  <si>
     <t>2025-03-26 17:36:34</t>
   </si>
   <si>
-    <t>241354340</t>
-  </si>
-  <si>
-    <t>洛瑾夏世</t>
-  </si>
-  <si>
-    <t>这跟对马岛没太大区别啊，这种罐头式游戏真的很容易玩腻</t>
-  </si>
-  <si>
     <t>2025-03-26 17:28:25</t>
   </si>
   <si>
-    <t>3536994279884871</t>
-  </si>
-  <si>
-    <t>肥狗娣</t>
-  </si>
-  <si>
-    <t>达到</t>
-  </si>
-  <si>
     <t>2025-03-26 17:26:39</t>
   </si>
   <si>
-    <t>435329795</t>
-  </si>
-  <si>
-    <t>丶KK丶_</t>
-  </si>
-  <si>
-    <t>排序我感觉乱乱的</t>
-  </si>
-  <si>
     <t>2025-03-26 17:13:21</t>
   </si>
   <si>
-    <t>1600727872</t>
-  </si>
-  <si>
-    <t>lex的大爹</t>
-  </si>
-  <si>
-    <t>有点后悔没预购了，看起来还不错[藏狐]</t>
-  </si>
-  <si>
     <t>2025-03-26 16:47:37</t>
   </si>
   <si>
-    <t>320798329</t>
-  </si>
-  <si>
-    <t>404NotFound_61</t>
-  </si>
-  <si>
-    <t>没有地图传送机制吗？全靠骑马跑图？</t>
-  </si>
-  <si>
     <t>2025-03-26 16:23:45</t>
   </si>
   <si>
-    <t>26041104</t>
-  </si>
-  <si>
-    <t>北方暴风雪</t>
-  </si>
-  <si>
-    <t>影为了表现日本自然风光多么美好，把屏幕里填满了树林，民生相关的村庄、水车能删则删，城堡附近连个城下町都没有，野外的寺庙、神社这些人文景点倒是没忘了添加，路上自动刷新四处游荡、无所事事的平民，仅有的几个城市里也种满了树，各种小桥流水，日本战国整的跟精灵族的瑞文戴尔似的。</t>
-  </si>
-  <si>
     <t>2025-03-26 15:31:49</t>
   </si>
   <si>
-    <t>378288191</t>
-  </si>
-  <si>
-    <t>或许是熹爷</t>
-  </si>
-  <si>
-    <t>怎么我那把蓝色小刀的词条是弱点攻击后丢下烟雾弹，咋一点反应都没有呢？</t>
-  </si>
-  <si>
     <t>2025-03-26 12:23:08</t>
   </si>
   <si>
-    <t>91854812</t>
-  </si>
-  <si>
-    <t>满月之夜的恶作剧魔法</t>
-  </si>
-  <si>
-    <t>感觉这作不太行，刺客信条以历史知名，上一代刺客信条英灵殿起码还能看看中世纪遗迹，这代大阪城没修好，就几个破屋子没啥意思。</t>
-  </si>
-  <si>
     <t>2025-03-26 11:49:10</t>
   </si>
   <si>
-    <t>450286979</t>
-  </si>
-  <si>
-    <t>bili_52821542601</t>
-  </si>
-  <si>
-    <t>这武器感觉不行啊</t>
-  </si>
-  <si>
     <t>2025-03-26 08:49:37</t>
   </si>
   <si>
-    <t>397048508</t>
-  </si>
-  <si>
-    <t>出门前拉过屎的人</t>
-  </si>
-  <si>
-    <t>最终幻想～回村的诱惑</t>
-  </si>
-  <si>
     <t>2025-03-26 07:54:18</t>
   </si>
   <si>
-    <t>363124833</t>
-  </si>
-  <si>
-    <t>白凝冰咯</t>
-  </si>
-  <si>
-    <t>全收集刺客信条，确实吊</t>
-  </si>
-  <si>
     <t>2025-03-26 04:24:44</t>
   </si>
   <si>
-    <t>22622657</t>
-  </si>
-  <si>
-    <t>NICRA1N</t>
-  </si>
-  <si>
-    <t>为什么我没有新手操作教程</t>
-  </si>
-  <si>
     <t>2025-03-26 03:02:10</t>
   </si>
   <si>
-    <t>2020678</t>
-  </si>
-  <si>
-    <t>亞瑟的赌徒帽</t>
-  </si>
-  <si>
-    <t>意犹未尽</t>
-  </si>
-  <si>
     <t>2025-03-26 02:56:33</t>
   </si>
   <si>
-    <t>2589401</t>
-  </si>
-  <si>
-    <t>SetsuAkira</t>
-  </si>
-  <si>
-    <t>这次简体中文翻译真不行，好多人名都对不上</t>
-  </si>
-  <si>
     <t>2025-03-26 01:38:47</t>
   </si>
   <si>
-    <t>678724976</t>
-  </si>
-  <si>
-    <t>海上力量导弹时代</t>
-  </si>
-  <si>
-    <t>一人传一人的茶道一点不卫生  成了喝囗水了 何来平衡</t>
-  </si>
-  <si>
     <t>2025-03-26 01:07:38</t>
   </si>
   <si>
-    <t>笑死我女枪手具然认不岀静香了</t>
-  </si>
-  <si>
     <t>2025-03-26 01:01:05</t>
   </si>
   <si>
-    <t>3494380149148515</t>
-  </si>
-  <si>
-    <t>byq678</t>
-  </si>
-  <si>
-    <t>日本人真是够了，自己《仁王》 里头弥助别说踏马是武士，人家还有守护灵熊呢[笑哭]，育碧整个正常人武士就不行了，真是前后把自己给矛盾住了</t>
-  </si>
-  <si>
     <t>2025-03-26 00:25:51</t>
   </si>
   <si>
-    <t>645938192</t>
-  </si>
-  <si>
-    <t>保明爱吃泽阳肉</t>
-  </si>
-  <si>
-    <t>没有受到明智蛊惑，或者拒绝明智，会有什么不一样的剧情吗</t>
-  </si>
-  <si>
     <t>2025-03-26 00:18:44</t>
   </si>
   <si>
-    <t>102566118</t>
-  </si>
-  <si>
-    <t>四大皆空切尔西</t>
-  </si>
-  <si>
-    <t>唯有起源全收集！</t>
-  </si>
-  <si>
     <t>2025-03-25 22:42:55</t>
   </si>
   <si>
-    <t>675013262</t>
-  </si>
-  <si>
-    <t>飞哥112255</t>
-  </si>
-  <si>
-    <t>这个游戏可以游遍日本岛吗</t>
-  </si>
-  <si>
     <t>2025-03-25 22:40:50</t>
   </si>
   <si>
-    <t>26622295</t>
-  </si>
-  <si>
-    <t>萌狼灬</t>
-  </si>
-  <si>
-    <t>任务目标里面最下面那个未知组织是啥啊</t>
-  </si>
-  <si>
     <t>2025-03-25 22:18:42</t>
   </si>
   <si>
-    <t>7626309</t>
-  </si>
-  <si>
-    <t>基尔伯特少佐丶</t>
-  </si>
-  <si>
-    <t>为什么这个游戏的画面填充很奇怪，看着好不适配啊，各种大黑边</t>
-  </si>
-  <si>
     <t>2025-03-25 21:36:01</t>
   </si>
   <si>
-    <t>324003396</t>
-  </si>
-  <si>
-    <t>饮长空</t>
-  </si>
-  <si>
-    <t>别做一个叫“战马”的支线，不然几个小时后会知道什么叫做所有的努力全部木大[疑惑]</t>
-  </si>
-  <si>
     <t>2025-03-25 20:40:37</t>
   </si>
   <si>
-    <t>26601224</t>
-  </si>
-  <si>
-    <t>奶奶个秀</t>
-  </si>
-  <si>
-    <t>一天怎么才更新三集[生气][生气][生气][生气]</t>
-  </si>
-  <si>
     <t>2025-03-25 19:10:11</t>
   </si>
   <si>
-    <t>233986159</t>
-  </si>
-  <si>
-    <t>小杰杰丶灬</t>
-  </si>
-  <si>
-    <t>脸模这么特别,有点让人出戏,会想为什么要把脸建这么丑,ZZZQ等等,总之每个厂做的游戏气质真的不一样,就像人一样,出生环境决定..</t>
-  </si>
-  <si>
     <t>2025-03-25 15:52:50</t>
   </si>
   <si>
-    <t>14249917</t>
-  </si>
-  <si>
-    <t>一只小跳蛙233</t>
-  </si>
-  <si>
-    <t>为什么我通关了技能书还有技能要我继续推进剧情[蔚蓝档案静态_生气]</t>
-  </si>
-  <si>
     <t>2025-03-25 15:28:31</t>
   </si>
   <si>
-    <t>5149184</t>
-  </si>
-  <si>
-    <t>桶子里的狼</t>
-  </si>
-  <si>
-    <t>武道赛怎么触发啊请问？</t>
-  </si>
-  <si>
     <t>2025-03-25 13:41:30</t>
   </si>
   <si>
-    <t>183156281</t>
-  </si>
-  <si>
-    <t>小熊猫开课</t>
-  </si>
-  <si>
-    <t>我不明白，为什么大佬黑看到三太夫的袖箭就变了？是后面还有瓜吃吗？</t>
-  </si>
-  <si>
     <t>2025-03-25 12:15:10</t>
   </si>
   <si>
-    <t>492878050</t>
-  </si>
-  <si>
-    <t>心中向往自由</t>
-  </si>
-  <si>
-    <t>我想问问自从双角色开始后，我物品栏一直有感叹号，怎么消啊，我连任务物品都全点了，还是消不了感叹号，折磨死了</t>
-  </si>
-  <si>
     <t>2025-03-25 11:17:06</t>
   </si>
   <si>
-    <t>222729323</t>
-  </si>
-  <si>
-    <t>山河如畫何如汝</t>
-  </si>
-  <si>
-    <t>这武形套路真的sb，shift➕左键一直判断错的</t>
-  </si>
-  <si>
     <t>2025-03-25 07:28:29</t>
   </si>
   <si>
-    <t>489092776</t>
-  </si>
-  <si>
-    <t>Yunfeio</t>
-  </si>
-  <si>
-    <t>怎么一股对马岛哪味</t>
-  </si>
-  <si>
     <t>2025-03-25 03:10:54</t>
   </si>
   <si>
-    <t>56286457</t>
-  </si>
-  <si>
-    <t>耳机看键盘</t>
-  </si>
-  <si>
-    <t>这一作打斗不华丽了，劈砍挑刺也没什么特效，石头山水也一般，可能历史还原度很高，但光看就没什么兴趣玩了[藏狐]</t>
-  </si>
-  <si>
     <t>2025-03-25 03:03:52</t>
   </si>
   <si>
-    <t>108915296</t>
-  </si>
-  <si>
-    <t>绚烂丰川祥</t>
-  </si>
-  <si>
-    <t>黑哥换成桐生一马就想玩了[颂乐人偶_眯眼笑]</t>
-  </si>
-  <si>
     <t>2025-03-25 01:14:22</t>
   </si>
   <si>
-    <t>497008994</t>
-  </si>
-  <si>
-    <t>精神副将马国成</t>
-  </si>
-  <si>
-    <t>玩一半了，来看弹幕回味下</t>
-  </si>
-  <si>
     <t>2025-03-25 00:49:53</t>
   </si>
   <si>
-    <t>31792989</t>
-  </si>
-  <si>
-    <t>格易先生</t>
-  </si>
-  <si>
-    <t>本能寺之变这一段太棒了，熬夜玩完了还要来找视频再看几遍</t>
-  </si>
-  <si>
     <t>2025-03-25 00:06:56</t>
   </si>
   <si>
-    <t>183895516</t>
-  </si>
-  <si>
-    <t>克尔-Thuzad</t>
-  </si>
-  <si>
-    <t>请问一下，伊贺的感叹号任务在哪一p啊</t>
-  </si>
-  <si>
     <t>2025-03-24 23:49:04</t>
   </si>
   <si>
-    <t>39940858</t>
-  </si>
-  <si>
-    <t>Adam_Ruzek</t>
-  </si>
-  <si>
-    <t>露脸+引怪+烟雾弹+刺杀 或只有后两步</t>
-  </si>
-  <si>
     <t>2025-03-24 21:22:17</t>
   </si>
   <si>
-    <t>15038908</t>
-  </si>
-  <si>
-    <t>电子青鸟</t>
-  </si>
-  <si>
-    <t>那个铁炮决斗的出生到底该怎么打啊？他有一万种方式秒我，而我连找着他都费劲</t>
-  </si>
-  <si>
     <t>2025-03-24 20:04:15</t>
   </si>
   <si>
-    <t>107040694</t>
-  </si>
-  <si>
-    <t>浪人阿蹲</t>
-  </si>
-  <si>
-    <t>还好没听某些逆天指指点点说不好玩，一上手就被惊艳了</t>
-  </si>
-  <si>
     <t>2025-03-24 19:30:54</t>
   </si>
   <si>
-    <t>真感觉不如大革命和起源</t>
-  </si>
-  <si>
     <t>2025-03-24 19:19:46</t>
   </si>
   <si>
-    <t>2006427150</t>
-  </si>
-  <si>
-    <t>顿牛腩你呢</t>
-  </si>
-  <si>
-    <t>贵公司有多款手游安卓端和iOS都有   喜欢玩仙侠传奇类的手游可以私信我</t>
-  </si>
-  <si>
     <t>2025-03-24 18:53:13</t>
   </si>
   <si>
-    <t>1872596740</t>
-  </si>
-  <si>
-    <t>是菲不是韭啊</t>
-  </si>
-  <si>
-    <t>说的其实没错，真正想要和平就是需要一个统一强大的政权，小势力太多才会动荡不安战争不会结束</t>
-  </si>
-  <si>
     <t>2025-03-24 18:50:30</t>
   </si>
   <si>
-    <t>14079801</t>
-  </si>
-  <si>
-    <t>木伴石兮</t>
-  </si>
-  <si>
-    <t>听起来好别扭啊，是配音差还是台词差。</t>
-  </si>
-  <si>
     <t>2025-03-24 17:07:26</t>
   </si>
   <si>
-    <t>100863129</t>
-  </si>
-  <si>
-    <t>爱璐璐阿阿阿阿阿</t>
-  </si>
-  <si>
-    <t>不加入暗杀专属画面，暗杀效果做的也太烂太明显了</t>
-  </si>
-  <si>
     <t>2025-03-24 16:07:35</t>
   </si>
   <si>
-    <t>19393557</t>
-  </si>
-  <si>
-    <t>加农酱</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>靠这黑人，是从画里出来的吗？迪奥的事件</t>
-  </si>
-  <si>
     <t>2025-03-24 15:09:56</t>
   </si>
   <si>
-    <t>32815901</t>
-  </si>
-  <si>
-    <t>塵霜辰悦</t>
-  </si>
-  <si>
-    <t>一直在等这个游戏的攻略视频，终于出了，现在有些游戏只想☁️了实际玩感觉也没那么大兴趣了</t>
-  </si>
-  <si>
     <t>2025-03-24 13:55:44</t>
   </si>
   <si>
-    <t>23363786</t>
-  </si>
-  <si>
-    <t>忘川_扶桑</t>
-  </si>
-  <si>
-    <t>俯瞰点无法触发是什么原因啊[笑哭]</t>
-  </si>
-  <si>
     <t>2025-03-24 13:26:15</t>
+  </si>
+  <si>
+    <t>中性</t>
+  </si>
+  <si>
+    <t>消极</t>
+  </si>
+  <si>
+    <t>积极</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -790,7 +636,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -798,12 +644,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1098,1962 +962,2145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>257978259025</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2">
+        <v>665444888</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>134</v>
+      </c>
+      <c r="K2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>258784628864</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>473706003</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="K3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>258784155088</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="C4">
+        <v>385342724</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>136</v>
+      </c>
+      <c r="K4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>257966284769</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
+      <c r="C5">
+        <v>235060850</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>137</v>
+      </c>
+      <c r="K5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>257963315841</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
+      <c r="C6">
+        <v>26302566</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>258774483824</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="C7">
+        <v>694762644</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>258769141168</v>
       </c>
-      <c r="C8" t="s">
-        <v>38</v>
+      <c r="C8">
+        <v>11802847</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="K8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>257949658401</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
+      <c r="C9">
+        <v>1735594476</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="K9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>258762182560</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
+      <c r="C10">
+        <v>33135901</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>142</v>
+      </c>
+      <c r="K10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>257943712241</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
+      <c r="C11">
+        <v>318780957</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>257937874417</v>
       </c>
-      <c r="C12" t="s">
-        <v>54</v>
+      <c r="C12">
+        <v>2041793471</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>257937058497</v>
       </c>
-      <c r="C13" t="s">
-        <v>58</v>
+      <c r="C13">
+        <v>1147353058</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>257930549777</v>
       </c>
-      <c r="C14" t="s">
-        <v>62</v>
+      <c r="C14">
+        <v>261787354</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>258744128304</v>
       </c>
-      <c r="C15" t="s">
-        <v>66</v>
+      <c r="C15">
+        <v>241354340</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>257929839793</v>
       </c>
-      <c r="C16" t="s">
-        <v>70</v>
+      <c r="C16">
+        <v>3536994279884871</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>257929015393</v>
       </c>
-      <c r="C17" t="s">
-        <v>74</v>
+      <c r="C17">
+        <v>435329795</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>257927239969</v>
       </c>
-      <c r="C18" t="s">
-        <v>78</v>
+      <c r="C18">
+        <v>1600727872</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>258739791376</v>
       </c>
-      <c r="C19" t="s">
-        <v>82</v>
+      <c r="C19">
+        <v>320798329</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>258736743120</v>
       </c>
-      <c r="C20" t="s">
-        <v>86</v>
+      <c r="C20">
+        <v>26041104</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F20">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>257910924945</v>
       </c>
-      <c r="C21" t="s">
-        <v>90</v>
+      <c r="C21">
+        <v>378288191</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>258721618288</v>
       </c>
-      <c r="C22" t="s">
-        <v>94</v>
+      <c r="C22">
+        <v>91854812</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>257897962945</v>
       </c>
-      <c r="C23" t="s">
-        <v>98</v>
+      <c r="C23">
+        <v>450286979</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>258708425008</v>
       </c>
-      <c r="C24" t="s">
-        <v>102</v>
+      <c r="C24">
+        <v>397048508</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F24">
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>156</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>258704645872</v>
       </c>
-      <c r="C25" t="s">
-        <v>106</v>
+      <c r="C25">
+        <v>363124833</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F25">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>157</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>257890755425</v>
       </c>
-      <c r="C26" t="s">
-        <v>110</v>
+      <c r="C26">
+        <v>22622657</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>257890800625</v>
       </c>
-      <c r="C27" t="s">
-        <v>114</v>
+      <c r="C27">
+        <v>2020678</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F27">
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>159</v>
+      </c>
+      <c r="K27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>258700716880</v>
       </c>
-      <c r="C28" t="s">
-        <v>118</v>
+      <c r="C28">
+        <v>2589401</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F28">
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>160</v>
+      </c>
+      <c r="K28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>257887218625</v>
       </c>
-      <c r="C29" t="s">
-        <v>122</v>
+      <c r="C29">
+        <v>678724976</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F29">
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>161</v>
+      </c>
+      <c r="K29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>257886858225</v>
       </c>
-      <c r="C30" t="s">
-        <v>122</v>
+      <c r="C30">
+        <v>678724976</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F30">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="K30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>258696795152</v>
       </c>
-      <c r="C31" t="s">
-        <v>128</v>
+      <c r="C31">
+        <v>3494380149148515</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F31">
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="I31">
         <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>257884363521</v>
       </c>
-      <c r="C32" t="s">
-        <v>132</v>
+      <c r="C32">
+        <v>645938192</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="K32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>258688460352</v>
       </c>
-      <c r="C33" t="s">
-        <v>136</v>
+      <c r="C33">
+        <v>102566118</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F33">
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>165</v>
+      </c>
+      <c r="K33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>257876535841</v>
       </c>
-      <c r="C34" t="s">
-        <v>140</v>
+      <c r="C34">
+        <v>675013262</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F34">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>257874587793</v>
       </c>
-      <c r="C35" t="s">
-        <v>144</v>
+      <c r="C35">
+        <v>26622295</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>167</v>
+      </c>
+      <c r="K35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>258682518192</v>
       </c>
-      <c r="C36" t="s">
-        <v>148</v>
+      <c r="C36">
+        <v>7626309</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="K36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>257866308177</v>
       </c>
-      <c r="C37" t="s">
-        <v>152</v>
+      <c r="C37">
+        <v>324003396</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>169</v>
+      </c>
+      <c r="K37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>258670125024</v>
       </c>
-      <c r="C38" t="s">
-        <v>156</v>
+      <c r="C38">
+        <v>26601224</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>170</v>
+      </c>
+      <c r="K38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>257844959985</v>
       </c>
-      <c r="C39" t="s">
-        <v>160</v>
+      <c r="C39">
+        <v>233986159</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>171</v>
+      </c>
+      <c r="K39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>258654038608</v>
       </c>
-      <c r="C40" t="s">
-        <v>164</v>
+      <c r="C40">
+        <v>14249917</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F40">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>172</v>
+      </c>
+      <c r="K40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>257837598353</v>
       </c>
-      <c r="C41" t="s">
-        <v>168</v>
+      <c r="C41">
+        <v>5149184</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F41">
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>257831166481</v>
       </c>
-      <c r="C42" t="s">
-        <v>172</v>
+      <c r="C42">
+        <v>183156281</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
         <v>174</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>257827038017</v>
       </c>
-      <c r="C43" t="s">
-        <v>176</v>
+      <c r="C43">
+        <v>492878050</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="K43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>258625099408</v>
       </c>
-      <c r="C44" t="s">
-        <v>180</v>
+      <c r="C44">
+        <v>222729323</v>
       </c>
       <c r="D44" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F44">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>257812244721</v>
       </c>
-      <c r="C45" t="s">
-        <v>184</v>
+      <c r="C45">
+        <v>489092776</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>177</v>
+      </c>
+      <c r="K45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>257811959905</v>
       </c>
-      <c r="C46" t="s">
-        <v>188</v>
+      <c r="C46">
+        <v>56286457</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F46">
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>178</v>
+      </c>
+      <c r="K46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>257808962593</v>
       </c>
-      <c r="C47" t="s">
-        <v>192</v>
+      <c r="C47">
+        <v>108915296</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F47">
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="K47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>257807789073</v>
       </c>
-      <c r="C48" t="s">
-        <v>196</v>
+      <c r="C48">
+        <v>497008994</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>180</v>
+      </c>
+      <c r="K48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>257805214001</v>
       </c>
-      <c r="C49" t="s">
-        <v>200</v>
+      <c r="C49">
+        <v>31792989</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>181</v>
+      </c>
+      <c r="K49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>258612741584</v>
       </c>
-      <c r="C50" t="s">
-        <v>204</v>
+      <c r="C50">
+        <v>183895516</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>182</v>
+      </c>
+      <c r="K50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>257791734081</v>
       </c>
-      <c r="C51" t="s">
-        <v>208</v>
+      <c r="C51">
+        <v>39940858</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>183</v>
+      </c>
+      <c r="K51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>258593771344</v>
       </c>
-      <c r="C52" t="s">
-        <v>212</v>
+      <c r="C52">
+        <v>15038908</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H52" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>184</v>
+      </c>
+      <c r="K52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>257782868625</v>
       </c>
-      <c r="C53" t="s">
-        <v>216</v>
+      <c r="C53">
+        <v>107040694</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H53" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="I53">
         <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>185</v>
+      </c>
+      <c r="K53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>257781988481</v>
       </c>
-      <c r="C54" t="s">
-        <v>122</v>
+      <c r="C54">
+        <v>678724976</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F54">
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>186</v>
+      </c>
+      <c r="K54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>257779803889</v>
       </c>
-      <c r="C55" t="s">
-        <v>222</v>
+      <c r="C55">
+        <v>2006427150</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>258587619408</v>
       </c>
-      <c r="C56" t="s">
-        <v>226</v>
+      <c r="C56">
+        <v>1872596740</v>
       </c>
       <c r="D56" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F56">
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H56" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>188</v>
+      </c>
+      <c r="K56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>258579747968</v>
       </c>
-      <c r="C57" t="s">
-        <v>230</v>
+      <c r="C57">
+        <v>14079801</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H57" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>189</v>
+      </c>
+      <c r="K57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>258576095456</v>
       </c>
-      <c r="C58" t="s">
-        <v>234</v>
+      <c r="C58">
+        <v>100863129</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F58">
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>190</v>
+      </c>
+      <c r="K58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>257765173505</v>
       </c>
-      <c r="C59" t="s">
-        <v>238</v>
+      <c r="C59">
+        <v>19393557</v>
       </c>
       <c r="D59" t="s">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="F59">
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H59" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>191</v>
+      </c>
+      <c r="K59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>258568744080</v>
       </c>
-      <c r="C60" t="s">
-        <v>243</v>
+      <c r="C60">
+        <v>32815901</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="F60">
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H60" t="s">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="K60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>257759484529</v>
       </c>
-      <c r="C61" t="s">
-        <v>247</v>
+      <c r="C61">
+        <v>23363786</v>
       </c>
       <c r="D61" t="s">
-        <v>248</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F61">
         <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H61" t="s">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>250</v>
+        <v>193</v>
+      </c>
+      <c r="K61" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
